--- a/本体/时变海面雷达目标散射现象学模型.xlsx
+++ b/本体/时变海面雷达目标散射现象学模型.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
   <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/TIAN/实验室/雷达抽取/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6255" windowWidth="28755" windowHeight="6285" tabRatio="1000" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="1000" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="步骤1-A概念提取（按章节）" sheetId="1" r:id="rId1"/>
@@ -22,9 +27,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'步骤4-B datatypeProperties'!$A$1:$N$1</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -32,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="406">
   <si>
     <t>单极震荡式发射机</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -730,10 +738,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（3）受控词表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>词表名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1457,10 +1461,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>模型类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>模型名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1489,22 +1489,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>比较</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仿真示例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>出处</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>现象类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>现象名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1517,14 +1505,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>研究/仿真</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>研究名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>基本思路</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1553,16 +1533,88 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>研究ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>现象ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>模型ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>示例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对比分析</t>
+    <rPh sb="0" eb="1">
+      <t>dui'vi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fen'xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（模型）仿真</t>
+    <rPh sb="1" eb="2">
+      <t>mo'xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仿真ID</t>
+    <rPh sb="0" eb="1">
+      <t>fang'zhen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仿真名称</t>
+    <rPh sb="0" eb="1">
+      <t>fang'zhen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（3）受控术语表</t>
+    <rPh sb="5" eb="6">
+      <t>shu'yu'biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空-时相关海杂波统计模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海杂波时间相关特性模型</t>
+    <rPh sb="10" eb="11">
+      <t>xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海杂波空间相关特性模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时变海面雷达目标散射现象学模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理想航迹下场景目标SAR 回波快速模拟算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标SAR 回波快速模拟算法</t>
   </si>
 </sst>
 </file>
@@ -1936,7 +1988,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1946,21 +1998,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H250"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D177" sqref="D177"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="180" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A176" sqref="A176"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.375" style="1" customWidth="1"/>
-    <col min="3" max="4" width="13.375" style="10" customWidth="1"/>
-    <col min="5" max="5" width="29.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29.375" style="10" customWidth="1"/>
-    <col min="7" max="7" width="8.625" style="1"/>
-    <col min="8" max="8" width="21.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.625" style="1"/>
+    <col min="1" max="1" width="16.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="13.33203125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.33203125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="1"/>
+    <col min="8" max="8" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1991,7 +2043,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -2001,7 +2053,7 @@
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -2012,7 +2064,7 @@
       <c r="B4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -2020,7 +2072,7 @@
       <c r="B5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F5" s="9"/>
     </row>
@@ -2029,7 +2081,7 @@
       <c r="B6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F6" s="9"/>
     </row>
@@ -2038,7 +2090,7 @@
       <c r="B7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -2046,7 +2098,7 @@
       <c r="B8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -2054,13 +2106,13 @@
       <c r="B9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -2069,7 +2121,7 @@
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -2078,7 +2130,7 @@
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -2087,7 +2139,7 @@
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -2096,7 +2148,7 @@
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -2104,7 +2156,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -2114,7 +2166,7 @@
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -2126,7 +2178,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -2135,7 +2187,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -2144,7 +2196,7 @@
       <c r="C19" s="1"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -2153,13 +2205,13 @@
       <c r="C20" s="1"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="9"/>
       <c r="B21" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -2168,7 +2220,7 @@
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="9"/>
       <c r="B22" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -2176,7 +2228,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -2186,7 +2238,7 @@
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="9"/>
       <c r="B24" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -2198,7 +2250,7 @@
       <c r="C25" s="1"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -2207,7 +2259,7 @@
       <c r="C26" s="1"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -2216,12 +2268,12 @@
       <c r="C27" s="1"/>
       <c r="D27" s="9"/>
       <c r="E27" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -2231,7 +2283,7 @@
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="9"/>
       <c r="B29" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -2240,7 +2292,7 @@
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="9"/>
       <c r="B30" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -2249,7 +2301,7 @@
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="9"/>
       <c r="B31" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -2258,7 +2310,7 @@
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="9"/>
       <c r="B32" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -2266,7 +2318,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -2276,7 +2328,7 @@
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="9"/>
       <c r="B34" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -2285,7 +2337,7 @@
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="9"/>
       <c r="B35" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
@@ -2294,7 +2346,7 @@
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="9"/>
       <c r="B36" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -2303,7 +2355,7 @@
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="9"/>
       <c r="B37" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
@@ -2312,7 +2364,7 @@
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="9"/>
       <c r="B38" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -2322,7 +2374,7 @@
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
@@ -2331,7 +2383,7 @@
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
@@ -2339,7 +2391,7 @@
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="9"/>
       <c r="B41" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
@@ -2347,7 +2399,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -2357,7 +2409,7 @@
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="9"/>
       <c r="B43" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
@@ -2366,7 +2418,7 @@
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="9"/>
       <c r="B44" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
@@ -2378,7 +2430,7 @@
       <c r="C45" s="1"/>
       <c r="D45" s="9"/>
       <c r="E45" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -2387,13 +2439,13 @@
       <c r="C46" s="1"/>
       <c r="D46" s="9"/>
       <c r="E46" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="9"/>
       <c r="B47" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -2401,7 +2453,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
@@ -2411,7 +2463,7 @@
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="9"/>
       <c r="B49" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
@@ -2423,7 +2475,7 @@
       <c r="C50" s="1"/>
       <c r="D50" s="9"/>
       <c r="E50" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -2432,13 +2484,13 @@
       <c r="C51" s="1"/>
       <c r="D51" s="9"/>
       <c r="E51" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="9"/>
       <c r="B52" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
@@ -2447,7 +2499,7 @@
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="9"/>
       <c r="B53" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
@@ -2455,7 +2507,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
@@ -2465,7 +2517,7 @@
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="9"/>
       <c r="B55" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
@@ -2477,7 +2529,7 @@
       <c r="C56" s="1"/>
       <c r="D56" s="9"/>
       <c r="E56" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -2486,13 +2538,13 @@
       <c r="C57" s="1"/>
       <c r="D57" s="9"/>
       <c r="E57" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="9"/>
       <c r="B58" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
@@ -2501,7 +2553,7 @@
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="9"/>
       <c r="B59" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
@@ -2510,7 +2562,7 @@
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="9"/>
       <c r="B60" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
@@ -2518,7 +2570,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
@@ -2528,7 +2580,7 @@
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="9"/>
       <c r="B62" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
@@ -2537,7 +2589,7 @@
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="9"/>
       <c r="B63" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
@@ -2546,7 +2598,7 @@
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="9"/>
       <c r="B64" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
@@ -2558,7 +2610,7 @@
       <c r="C65" s="1"/>
       <c r="D65" s="9"/>
       <c r="E65" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -2567,13 +2619,13 @@
       <c r="C66" s="1"/>
       <c r="D66" s="9"/>
       <c r="E66" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="9"/>
       <c r="B67" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
@@ -2581,7 +2633,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
@@ -2591,7 +2643,7 @@
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="9"/>
       <c r="B69" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
@@ -2600,7 +2652,7 @@
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="9"/>
       <c r="B70" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
@@ -2612,7 +2664,7 @@
       <c r="C71" s="1"/>
       <c r="D71" s="9"/>
       <c r="E71" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -2621,7 +2673,7 @@
       <c r="C72" s="1"/>
       <c r="D72" s="9"/>
       <c r="E72" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -2630,13 +2682,13 @@
       <c r="C73" s="1"/>
       <c r="D73" s="9"/>
       <c r="E73" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="9"/>
       <c r="B74" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
@@ -2644,7 +2696,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
@@ -2654,7 +2706,7 @@
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="9"/>
       <c r="B76" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
@@ -2663,7 +2715,7 @@
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="9"/>
       <c r="B77" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
@@ -2672,7 +2724,7 @@
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="9"/>
       <c r="B78" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
@@ -2684,7 +2736,7 @@
       <c r="C79" s="1"/>
       <c r="D79" s="9"/>
       <c r="E79" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -2693,7 +2745,7 @@
       <c r="C80" s="1"/>
       <c r="D80" s="9"/>
       <c r="E80" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -2702,7 +2754,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="9"/>
       <c r="E81" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -2711,7 +2763,7 @@
       <c r="C82" s="1"/>
       <c r="D82" s="9"/>
       <c r="E82" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -2720,13 +2772,13 @@
       <c r="C83" s="1"/>
       <c r="D83" s="9"/>
       <c r="E83" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="9"/>
       <c r="B84" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
@@ -2735,7 +2787,7 @@
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="9"/>
       <c r="B85" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
@@ -2747,7 +2799,7 @@
       <c r="C86" s="1"/>
       <c r="D86" s="9"/>
       <c r="E86" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -2756,7 +2808,7 @@
       <c r="C87" s="1"/>
       <c r="D87" s="9"/>
       <c r="E87" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -2765,7 +2817,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="9"/>
       <c r="E88" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -2774,7 +2826,7 @@
       <c r="C89" s="1"/>
       <c r="D89" s="9"/>
       <c r="E89" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -2783,12 +2835,12 @@
       <c r="C90" s="1"/>
       <c r="D90" s="9"/>
       <c r="E90" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
@@ -2798,7 +2850,7 @@
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="9"/>
       <c r="B92" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
@@ -2807,7 +2859,7 @@
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="9"/>
       <c r="B93" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
@@ -2819,12 +2871,12 @@
       <c r="C94" s="1"/>
       <c r="D94" s="9"/>
       <c r="E94" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
@@ -2834,7 +2886,7 @@
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="9"/>
       <c r="B96" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
@@ -2846,7 +2898,7 @@
       <c r="C97" s="1"/>
       <c r="D97" s="9"/>
       <c r="E97" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -2855,12 +2907,12 @@
       <c r="C98" s="1"/>
       <c r="D98" s="9"/>
       <c r="E98" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
@@ -2870,7 +2922,7 @@
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="9"/>
       <c r="B100" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
@@ -2879,7 +2931,7 @@
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="9"/>
       <c r="B101" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C101" s="9"/>
       <c r="D101" s="9"/>
@@ -2891,7 +2943,7 @@
       <c r="C102" s="1"/>
       <c r="D102" s="9"/>
       <c r="E102" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
@@ -2900,13 +2952,13 @@
       <c r="C103" s="1"/>
       <c r="D103" s="9"/>
       <c r="E103" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="9"/>
       <c r="B104" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C104" s="9"/>
       <c r="D104" s="9"/>
@@ -2914,7 +2966,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
@@ -2924,7 +2976,7 @@
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="9"/>
       <c r="B106" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C106" s="9"/>
       <c r="D106" s="9"/>
@@ -2936,7 +2988,7 @@
       <c r="C107" s="1"/>
       <c r="D107" s="9"/>
       <c r="E107" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -2945,7 +2997,7 @@
       <c r="C108" s="1"/>
       <c r="D108" s="9"/>
       <c r="E108" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -2954,7 +3006,7 @@
       <c r="C109" s="1"/>
       <c r="D109" s="9"/>
       <c r="E109" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -2963,12 +3015,12 @@
       <c r="C110" s="1"/>
       <c r="D110" s="9"/>
       <c r="E110" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B111" s="9"/>
       <c r="C111" s="9"/>
@@ -2978,7 +3030,7 @@
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="9"/>
       <c r="B112" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C112" s="9"/>
       <c r="D112" s="9"/>
@@ -2990,7 +3042,7 @@
       <c r="C113" s="1"/>
       <c r="D113" s="9"/>
       <c r="E113" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -2999,7 +3051,7 @@
       <c r="C114" s="1"/>
       <c r="D114" s="9"/>
       <c r="E114" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -3008,7 +3060,7 @@
       <c r="C115" s="1"/>
       <c r="D115" s="9"/>
       <c r="E115" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -3017,12 +3069,12 @@
       <c r="C116" s="1"/>
       <c r="D116" s="9"/>
       <c r="E116" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
@@ -3032,7 +3084,7 @@
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="9"/>
       <c r="B118" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
@@ -3041,7 +3093,7 @@
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="9"/>
       <c r="B119" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
@@ -3050,7 +3102,7 @@
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="9"/>
       <c r="B120" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
@@ -3059,7 +3111,7 @@
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="9"/>
       <c r="B121" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
@@ -3068,7 +3120,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B122" s="9"/>
       <c r="C122" s="9"/>
@@ -3078,7 +3130,7 @@
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="9"/>
       <c r="B123" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
@@ -3087,7 +3139,7 @@
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="9"/>
       <c r="B124" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C124" s="9"/>
       <c r="D124" s="9"/>
@@ -3096,7 +3148,7 @@
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="9"/>
       <c r="B125" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
@@ -3105,7 +3157,7 @@
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="9"/>
       <c r="B126" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C126" s="9"/>
       <c r="D126" s="9"/>
@@ -3113,7 +3165,7 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B127" s="9"/>
       <c r="C127" s="9"/>
@@ -3123,7 +3175,7 @@
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="9"/>
       <c r="B128" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C128" s="9"/>
       <c r="D128" s="9"/>
@@ -3132,7 +3184,7 @@
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="9"/>
       <c r="B129" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C129" s="9"/>
       <c r="D129" s="9"/>
@@ -3144,7 +3196,7 @@
       <c r="C130" s="1"/>
       <c r="D130" s="9"/>
       <c r="E130" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
@@ -3153,12 +3205,12 @@
       <c r="C131" s="1"/>
       <c r="D131" s="9"/>
       <c r="E131" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
@@ -3168,7 +3220,7 @@
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="9"/>
       <c r="B133" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C133" s="9"/>
       <c r="D133" s="9"/>
@@ -3180,7 +3232,7 @@
       <c r="C134" s="1"/>
       <c r="D134" s="9"/>
       <c r="E134" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
@@ -3189,7 +3241,7 @@
       <c r="C135" s="1"/>
       <c r="D135" s="9"/>
       <c r="E135" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
@@ -3198,13 +3250,13 @@
       <c r="C136" s="1"/>
       <c r="D136" s="9"/>
       <c r="E136" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="9"/>
       <c r="B137" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C137" s="9"/>
       <c r="D137" s="9"/>
@@ -3212,7 +3264,7 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B138" s="9"/>
       <c r="C138" s="9"/>
@@ -3222,7 +3274,7 @@
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="9"/>
       <c r="B139" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C139" s="9"/>
       <c r="D139" s="9"/>
@@ -3234,7 +3286,7 @@
       <c r="C140" s="1"/>
       <c r="D140" s="9"/>
       <c r="E140" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
@@ -3243,12 +3295,12 @@
       <c r="C141" s="1"/>
       <c r="D141" s="9"/>
       <c r="E141" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B142" s="9"/>
       <c r="C142" s="9"/>
@@ -3258,7 +3310,7 @@
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="9"/>
       <c r="B143" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C143" s="9"/>
       <c r="D143" s="9"/>
@@ -3267,7 +3319,7 @@
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="9"/>
       <c r="B144" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C144" s="9"/>
       <c r="D144" s="9"/>
@@ -3276,7 +3328,7 @@
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="9"/>
       <c r="B145" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C145" s="9"/>
       <c r="D145" s="9"/>
@@ -3285,7 +3337,7 @@
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="9"/>
       <c r="B146" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C146" s="9"/>
       <c r="D146" s="9"/>
@@ -3294,7 +3346,7 @@
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="9"/>
       <c r="B147" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C147" s="9"/>
       <c r="D147" s="9"/>
@@ -3302,7 +3354,7 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B148" s="9"/>
       <c r="C148" s="9"/>
@@ -3312,7 +3364,7 @@
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="9"/>
       <c r="B149" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C149" s="9"/>
       <c r="D149" s="9"/>
@@ -3321,7 +3373,7 @@
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="9"/>
       <c r="B150" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C150" s="9"/>
       <c r="D150" s="9"/>
@@ -3333,7 +3385,7 @@
       <c r="C151" s="1"/>
       <c r="D151" s="9"/>
       <c r="E151" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
@@ -3342,13 +3394,13 @@
       <c r="C152" s="1"/>
       <c r="D152" s="9"/>
       <c r="E152" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="9"/>
       <c r="B153" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C153" s="9"/>
       <c r="D153" s="9"/>
@@ -3357,7 +3409,7 @@
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="9"/>
       <c r="B154" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C154" s="9"/>
       <c r="D154" s="9"/>
@@ -3366,7 +3418,7 @@
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="9"/>
       <c r="B155" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C155" s="9"/>
       <c r="D155" s="9"/>
@@ -3378,7 +3430,7 @@
       <c r="C156" s="1"/>
       <c r="D156" s="9"/>
       <c r="E156" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
@@ -3387,12 +3439,12 @@
       <c r="C157" s="1"/>
       <c r="D157" s="9"/>
       <c r="E157" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B158" s="9"/>
       <c r="C158" s="9"/>
@@ -3402,7 +3454,7 @@
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="9"/>
       <c r="B159" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C159" s="9"/>
       <c r="D159" s="9"/>
@@ -3411,7 +3463,7 @@
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="9"/>
       <c r="B160" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C160" s="9"/>
       <c r="D160" s="9"/>
@@ -3423,7 +3475,7 @@
       <c r="C161" s="1"/>
       <c r="D161" s="9"/>
       <c r="E161" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
@@ -3432,13 +3484,13 @@
       <c r="C162" s="1"/>
       <c r="D162" s="9"/>
       <c r="E162" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="9"/>
       <c r="B163" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C163" s="9"/>
       <c r="D163" s="9"/>
@@ -3450,7 +3502,7 @@
       <c r="C164" s="1"/>
       <c r="D164" s="9"/>
       <c r="E164" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
@@ -3459,7 +3511,7 @@
       <c r="C165" s="1"/>
       <c r="D165" s="9"/>
       <c r="E165" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
@@ -3468,7 +3520,7 @@
       <c r="C166" s="1"/>
       <c r="D166" s="9"/>
       <c r="E166" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
@@ -3477,13 +3529,13 @@
       <c r="C167" s="1"/>
       <c r="D167" s="9"/>
       <c r="E167" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="9"/>
       <c r="B168" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C168" s="9"/>
       <c r="D168" s="9"/>
@@ -3495,7 +3547,7 @@
       <c r="C169" s="1"/>
       <c r="D169" s="9"/>
       <c r="E169" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
@@ -3504,12 +3556,12 @@
       <c r="C170" s="1"/>
       <c r="D170" s="9"/>
       <c r="E170" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B171" s="9"/>
       <c r="C171" s="9"/>
@@ -3519,7 +3571,7 @@
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="9"/>
       <c r="B172" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C172" s="9"/>
       <c r="D172" s="9"/>
@@ -3528,7 +3580,7 @@
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="9"/>
       <c r="B173" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C173" s="9"/>
       <c r="D173" s="9"/>
@@ -3537,7 +3589,7 @@
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="9"/>
       <c r="B174" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C174" s="9"/>
       <c r="D174" s="9"/>
@@ -3546,7 +3598,7 @@
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="9"/>
       <c r="B175" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C175" s="9"/>
       <c r="D175" s="9"/>
@@ -3554,7 +3606,7 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B176" s="9"/>
       <c r="C176" s="9"/>
@@ -3564,7 +3616,7 @@
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="9"/>
       <c r="B177" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C177" s="9"/>
       <c r="D177" s="9"/>
@@ -3573,7 +3625,7 @@
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="9"/>
       <c r="B178" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C178" s="9"/>
       <c r="D178" s="9"/>
@@ -3583,7 +3635,7 @@
       <c r="A179" s="9"/>
       <c r="B179" s="9"/>
       <c r="C179" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D179" s="9"/>
       <c r="E179" s="9"/>
@@ -3592,7 +3644,7 @@
       <c r="A180" s="9"/>
       <c r="B180" s="9"/>
       <c r="C180" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D180" s="9"/>
       <c r="E180" s="9"/>
@@ -3600,7 +3652,7 @@
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="9"/>
       <c r="B181" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C181" s="9"/>
       <c r="D181" s="9"/>
@@ -3612,7 +3664,7 @@
       <c r="C182" s="1"/>
       <c r="D182" s="9"/>
       <c r="E182" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
@@ -3621,13 +3673,13 @@
       <c r="C183" s="1"/>
       <c r="D183" s="9"/>
       <c r="E183" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="9"/>
       <c r="B184" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C184" s="9"/>
       <c r="D184" s="9"/>
@@ -3636,7 +3688,7 @@
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="9"/>
       <c r="B185" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C185" s="9"/>
       <c r="D185" s="9"/>
@@ -3644,7 +3696,7 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B186" s="9"/>
       <c r="C186" s="9"/>
@@ -3654,7 +3706,7 @@
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="9"/>
       <c r="B187" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C187" s="9"/>
       <c r="D187" s="9"/>
@@ -3666,7 +3718,7 @@
       <c r="C188" s="1"/>
       <c r="D188" s="9"/>
       <c r="E188" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
@@ -3675,13 +3727,13 @@
       <c r="C189" s="1"/>
       <c r="D189" s="9"/>
       <c r="E189" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="9"/>
       <c r="B190" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C190" s="9"/>
       <c r="D190" s="9"/>
@@ -3689,7 +3741,7 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B191" s="9"/>
       <c r="C191" s="9"/>
@@ -3699,7 +3751,7 @@
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="9"/>
       <c r="B192" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C192" s="9"/>
       <c r="D192" s="9"/>
@@ -3711,7 +3763,7 @@
       <c r="C193" s="1"/>
       <c r="D193" s="9"/>
       <c r="E193" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
@@ -3720,13 +3772,13 @@
       <c r="C194" s="1"/>
       <c r="D194" s="9"/>
       <c r="E194" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" s="9"/>
       <c r="B195" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C195" s="9"/>
       <c r="D195" s="9"/>
@@ -3734,7 +3786,7 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B196" s="9"/>
       <c r="C196" s="9"/>
@@ -3744,7 +3796,7 @@
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" s="9"/>
       <c r="B197" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C197" s="9"/>
       <c r="D197" s="9"/>
@@ -3753,7 +3805,7 @@
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" s="9"/>
       <c r="B198" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C198" s="9"/>
       <c r="D198" s="9"/>
@@ -3762,7 +3814,7 @@
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" s="9"/>
       <c r="B199" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C199" s="9"/>
       <c r="D199" s="9"/>
@@ -3774,7 +3826,7 @@
       <c r="C200" s="1"/>
       <c r="D200" s="9"/>
       <c r="E200" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
@@ -3783,13 +3835,13 @@
       <c r="C201" s="1"/>
       <c r="D201" s="9"/>
       <c r="E201" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" s="9"/>
       <c r="B202" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C202" s="9"/>
       <c r="D202" s="9"/>
@@ -3801,12 +3853,12 @@
       <c r="C203" s="1"/>
       <c r="D203" s="9"/>
       <c r="E203" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B204" s="9"/>
       <c r="C204" s="9"/>
@@ -3816,7 +3868,7 @@
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" s="9"/>
       <c r="B205" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C205" s="9"/>
       <c r="D205" s="9"/>
@@ -3829,7 +3881,7 @@
       <c r="C206" s="1"/>
       <c r="D206" s="9"/>
       <c r="E206" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
@@ -3838,7 +3890,7 @@
       <c r="C207" s="1"/>
       <c r="D207" s="9"/>
       <c r="E207" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
@@ -3847,13 +3899,13 @@
       <c r="C208" s="1"/>
       <c r="D208" s="9"/>
       <c r="E208" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="9"/>
       <c r="B209" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C209" s="9"/>
       <c r="D209" s="9"/>
@@ -3862,7 +3914,7 @@
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="9"/>
       <c r="B210" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C210" s="9"/>
       <c r="D210" s="9"/>
@@ -3870,7 +3922,7 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B211" s="9"/>
       <c r="C211" s="9"/>
@@ -3880,7 +3932,7 @@
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="9"/>
       <c r="B212" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C212" s="9"/>
       <c r="D212" s="9"/>
@@ -3889,7 +3941,7 @@
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="9"/>
       <c r="B213" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C213" s="9"/>
       <c r="D213" s="9"/>
@@ -4133,11 +4185,11 @@
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.875" customWidth="1"/>
-    <col min="2" max="2" width="27.375" customWidth="1"/>
-    <col min="3" max="3" width="26.25" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4424,13 +4476,13 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.5" customWidth="1"/>
-    <col min="3" max="3" width="16.625" customWidth="1"/>
-    <col min="4" max="4" width="40.25" customWidth="1"/>
-    <col min="6" max="6" width="13.75" customWidth="1"/>
-    <col min="7" max="7" width="10.875" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="40.1640625" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4576,10 +4628,10 @@
       <selection pane="bottomLeft" activeCell="A43" sqref="A43:XFD71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
     <col min="5" max="5" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4602,7 +4654,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -4610,43 +4662,43 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C3" s="9"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -4655,7 +4707,7 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -4663,27 +4715,27 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D12" s="9"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D13" s="9"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -4692,25 +4744,25 @@
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C15" s="9"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -4719,25 +4771,25 @@
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="9"/>
       <c r="B19" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C20" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="21" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C21" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="9"/>
       <c r="B22" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -4746,7 +4798,7 @@
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D23" s="9"/>
     </row>
@@ -4754,13 +4806,13 @@
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -4768,24 +4820,24 @@
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
       <c r="B26" s="9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C26" s="9"/>
     </row>
     <row r="27" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="9"/>
       <c r="B28" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -4793,19 +4845,19 @@
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="9"/>
       <c r="B30" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C30" s="9"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="9"/>
       <c r="B31" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -4813,66 +4865,66 @@
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="9"/>
       <c r="B33" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C33" s="9"/>
     </row>
     <row r="34" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C34" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="35" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C35" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="36" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C36" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="37" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C37" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="9"/>
       <c r="B38" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C38" s="9"/>
     </row>
     <row r="39" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C39" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="40" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C40" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="41" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C41" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="42" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C42" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="43" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="9"/>
       <c r="B44" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
@@ -4880,14 +4932,14 @@
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="9"/>
       <c r="B45" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
@@ -4896,7 +4948,7 @@
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="9"/>
       <c r="B47" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -4904,18 +4956,18 @@
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="9"/>
       <c r="B48" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="9"/>
       <c r="B49" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
@@ -4923,19 +4975,19 @@
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="9"/>
       <c r="B51" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C51" s="9"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="9"/>
       <c r="B52" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
@@ -4943,20 +4995,20 @@
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="9"/>
       <c r="B54" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C54" s="9"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="9"/>
       <c r="B55" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C55" s="9"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
@@ -4965,7 +5017,7 @@
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="9"/>
       <c r="B57" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
@@ -4973,14 +5025,14 @@
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="9"/>
       <c r="B58" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
@@ -4989,7 +5041,7 @@
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="9"/>
       <c r="B60" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
@@ -4997,13 +5049,13 @@
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="9"/>
       <c r="B61" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D61" s="9"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
@@ -5012,37 +5064,37 @@
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="9"/>
       <c r="B63" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C63" s="9"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="9"/>
       <c r="B64" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B65" s="9"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B66" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C66" s="10"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B67" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C67" s="10"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
@@ -5050,20 +5102,20 @@
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="9"/>
       <c r="B69" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C69" s="9"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="9"/>
       <c r="B70" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="9"/>
       <c r="B71" s="9" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -5085,11 +5137,11 @@
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="3" width="13.625" customWidth="1"/>
-    <col min="4" max="4" width="11.25" customWidth="1"/>
+    <col min="2" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -5126,9 +5178,9 @@
       <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -5164,15 +5216,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L317"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="A31" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="180" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="5"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="5" max="5" width="24.25" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="5"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -5339,7 +5391,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>373</v>
+        <v>398</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="1"/>
@@ -5351,7 +5403,7 @@
     </row>
     <row r="16" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="10" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -5363,7 +5415,7 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -5375,7 +5427,7 @@
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="9"/>
       <c r="B18" s="9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -5387,7 +5439,7 @@
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="9"/>
       <c r="B19" s="9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -5399,7 +5451,7 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
       <c r="B20" s="9" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -5411,7 +5463,7 @@
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="9"/>
       <c r="B21" s="9" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -5423,7 +5475,7 @@
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="9"/>
       <c r="B22" s="9" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -5435,7 +5487,7 @@
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
       <c r="B23" s="9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -5447,7 +5499,7 @@
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="9"/>
       <c r="B24" s="9" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -5459,7 +5511,7 @@
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
       <c r="B25" s="9" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -5471,7 +5523,7 @@
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
       <c r="B26" s="9" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -5482,7 +5534,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="1"/>
@@ -5495,7 +5547,7 @@
     </row>
     <row r="28" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="9" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
@@ -5508,7 +5560,7 @@
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="9"/>
       <c r="B29" s="9" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -5521,7 +5573,7 @@
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="9"/>
       <c r="B30" s="9" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -5534,7 +5586,7 @@
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="9"/>
       <c r="B31" s="9" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -5547,7 +5599,7 @@
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="9"/>
       <c r="B32" s="9" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -5559,7 +5611,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="B33" s="9"/>
       <c r="C33" s="1"/>
@@ -5572,7 +5624,7 @@
     </row>
     <row r="34" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
@@ -5585,7 +5637,7 @@
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="9"/>
       <c r="B35" s="9" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -5598,7 +5650,7 @@
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="9"/>
       <c r="B36" s="9" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -5611,7 +5663,7 @@
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="9"/>
       <c r="B37" s="9" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -5624,7 +5676,7 @@
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="9"/>
       <c r="B38" s="9" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -5637,7 +5689,7 @@
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="9"/>
       <c r="B39" s="9" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -5650,7 +5702,7 @@
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="9"/>
       <c r="B40" s="9" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -5663,7 +5715,7 @@
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="9"/>
       <c r="B41" s="9" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -5676,7 +5728,7 @@
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="9"/>
       <c r="B42" s="9" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -5689,7 +5741,7 @@
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="9"/>
       <c r="B43" s="9" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -7041,16 +7093,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J77"/>
+  <dimension ref="A1:J127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49:E77"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -7088,330 +7143,638 @@
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="13" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="9" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="9" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D15" s="9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D16" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D17" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D18" s="9" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D19" s="9" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D20" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D22" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D23" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D24" s="9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D25" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C26" s="9" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D27" s="9" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E28" s="9" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E29" s="9" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E30" s="9" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E31" s="9" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D32" s="9" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E33" s="9" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E34" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E35" s="9" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E36" s="9" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C37" s="9" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D38" s="9" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D39" s="9" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C40" s="9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D41" s="9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D42" s="9" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D43" s="9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C44" s="9" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D45" s="9" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D46" s="9" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C47" s="9" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D48" s="9" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D49" s="9" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C50" s="9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D51" s="9" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D52" s="9" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C53" s="9" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D54" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="E54" s="10"/>
+    </row>
+    <row r="55" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D55" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="E55" s="10"/>
+    </row>
+    <row r="56" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+    </row>
+    <row r="60" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="9" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C61" s="9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D62" s="9" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D63" s="9" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C64" s="9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D65" s="9" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D66" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" s="9"/>
+      <c r="B67" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+    </row>
+    <row r="68" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="9"/>
+      <c r="C68" s="9" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B69" s="9"/>
+      <c r="C69" s="9" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B70" s="9"/>
+      <c r="C70" s="9" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="9" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C72" s="9" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D73" s="9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D74" s="9" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C75" s="9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D76" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D77" s="9" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
+      <c r="E80" t="s">
         <v>180</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F80" t="s">
+        <v>182</v>
+      </c>
+      <c r="G80" t="s">
         <v>181</v>
       </c>
-      <c r="F18" t="s">
+      <c r="H80" t="s">
         <v>183</v>
       </c>
-      <c r="G18" t="s">
-        <v>182</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="I80" t="s">
         <v>184</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J80" t="s">
         <v>185</v>
       </c>
-      <c r="J18" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="9" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="9" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="9" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="9" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C23" s="9" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C24" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C25" s="9" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="9" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C27" s="9" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C28" s="9" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C30" s="9" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="9" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C32" s="9" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D33" s="9" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D34" s="9" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D35" s="9" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D36" s="9" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C37" s="9" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D38" s="9" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D39" s="9" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D40" s="9" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D41" s="9" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="9" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C43" s="9" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D44" s="9" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D45" s="9" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C46" s="9" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D47" s="9" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D48" s="9" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="9" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C50" s="9" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C51" s="9" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="9" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C53" s="9" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C54" s="9" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C55" s="9" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="9" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C57" s="9" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C58" s="9" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="9" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C60" s="9" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C61" s="9" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="9" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C63" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C64" s="9" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="9" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C66" s="9" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C67" s="9" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="9" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C69" s="9" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C70" s="9" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="9" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C72" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="D72" s="10"/>
-    </row>
-    <row r="73" spans="2:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C73" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="D73" s="10"/>
-    </row>
-    <row r="74" spans="2:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="9" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C75" s="9" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="76" spans="2:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C76" s="9" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C77" s="9" t="s">
-        <v>372</v>
-      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B81" s="9"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B83" s="9"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B85" s="9"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B86" s="9"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B87" s="9"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B88" s="9"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B89" s="9"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B90" s="9"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B91" s="9"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B92" s="9"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B93" s="9"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B94" s="9"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B95" s="9"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B96" s="9"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B97" s="9"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B98" s="9"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B99" s="9"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B100" s="9"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B101" s="9"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B102" s="9"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B103" s="9"/>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B104" s="9"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B105" s="9"/>
+      <c r="C105" s="9"/>
+      <c r="D105" s="9"/>
+      <c r="E105" s="9"/>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B106" s="9"/>
+      <c r="C106" s="9"/>
+      <c r="D106" s="9"/>
+      <c r="E106" s="9"/>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B107" s="9"/>
+      <c r="C107" s="9"/>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9"/>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B108" s="9"/>
+      <c r="C108" s="9"/>
+      <c r="D108" s="9"/>
+      <c r="E108" s="9"/>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B109" s="9"/>
+      <c r="C109" s="9"/>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9"/>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B110" s="9"/>
+      <c r="C110" s="9"/>
+      <c r="D110" s="9"/>
+      <c r="E110" s="9"/>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B111" s="9"/>
+      <c r="C111" s="9"/>
+      <c r="D111" s="9"/>
+      <c r="E111" s="9"/>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B112" s="9"/>
+      <c r="C112" s="9"/>
+      <c r="D112" s="9"/>
+      <c r="E112" s="9"/>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B113" s="9"/>
+      <c r="C113" s="9"/>
+      <c r="D113" s="9"/>
+      <c r="E113" s="9"/>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B114" s="9"/>
+      <c r="C114" s="9"/>
+      <c r="D114" s="9"/>
+      <c r="E114" s="9"/>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B115" s="9"/>
+      <c r="C115" s="9"/>
+      <c r="D115" s="9"/>
+      <c r="E115" s="9"/>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B116" s="9"/>
+      <c r="C116" s="9"/>
+      <c r="D116" s="9"/>
+      <c r="E116" s="9"/>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B117" s="9"/>
+      <c r="C117" s="9"/>
+      <c r="D117" s="9"/>
+      <c r="E117" s="9"/>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B118" s="9"/>
+      <c r="C118" s="9"/>
+      <c r="D118" s="9"/>
+      <c r="E118" s="9"/>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B119" s="9"/>
+      <c r="C119" s="9"/>
+      <c r="D119" s="9"/>
+      <c r="E119" s="9"/>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B120" s="9"/>
+      <c r="C120" s="9"/>
+      <c r="D120" s="9"/>
+      <c r="E120" s="9"/>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B121" s="9"/>
+      <c r="C121" s="9"/>
+      <c r="D121" s="9"/>
+      <c r="E121" s="9"/>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B122" s="9"/>
+      <c r="C122" s="9"/>
+      <c r="D122" s="9"/>
+      <c r="E122" s="9"/>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B123" s="9"/>
+      <c r="C123" s="9"/>
+      <c r="D123" s="9"/>
+      <c r="E123" s="9"/>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B124" s="9"/>
+      <c r="C124" s="9"/>
+      <c r="D124" s="9"/>
+      <c r="E124" s="9"/>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B125" s="9"/>
+      <c r="C125" s="9"/>
+      <c r="D125" s="9"/>
+      <c r="E125" s="9"/>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B126" s="9"/>
+      <c r="C126" s="9"/>
+      <c r="D126" s="9"/>
+      <c r="E126" s="9"/>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B127" s="9"/>
+      <c r="C127" s="9"/>
+      <c r="D127" s="9"/>
+      <c r="E127" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7427,7 +7790,7 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7442,10 +7805,10 @@
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.375" customWidth="1"/>
-    <col min="5" max="5" width="17.75" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7584,19 +7947,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.875" customWidth="1"/>
-    <col min="2" max="2" width="8.625" customWidth="1"/>
-    <col min="3" max="3" width="16.625" customWidth="1"/>
-    <col min="4" max="4" width="17.375" customWidth="1"/>
-    <col min="5" max="5" width="21.25" customWidth="1"/>
-    <col min="6" max="6" width="18.875" customWidth="1"/>
+    <col min="1" max="1" width="26.83203125" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
